--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\root\activities\fitness\pubrunner.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C826B07-3DD2-4C5B-ADBC-EF59F4DE831C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D829EAF-0900-4AF7-AC43-7E48A4FF77D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1845" windowWidth="20085" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,26 +813,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P56"/>
+  <dimension ref="A3:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.81640625" customWidth="1"/>
     <col min="8" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="54.5703125" customWidth="1"/>
+    <col min="15" max="15" width="54.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -905,11 +905,11 @@
         <v>28</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P52" si="0">SUM(H4:N4)*E4</f>
+        <f t="shared" ref="P4:P48" si="0">SUM(H4:N4)*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>41647</v>
       </c>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -976,7 +976,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42291</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42319</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42347</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42389</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42431</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42452</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42480</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42508</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42536</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42564</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42577</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>13.919999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42592</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42641</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42655</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42671</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42690</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42718</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42760</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42781</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>11.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42809</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42844</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42865</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42879</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42907</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42920</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42956</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42991</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43033</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43061</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43117</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43181</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43216</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43244</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43272</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43354</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43384</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43432</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43488</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43523</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43544</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43572</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>121</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43628</v>
       </c>
@@ -2859,61 +2859,66 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E53" s="1">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
         <f>SUM(E5:E49)</f>
         <v>183.57</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="3">
         <f>AVERAGE(G6:G49)</f>
         <v>9.6592945374557888E-3</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H54" s="1">
         <f>SUM(H5:H51)</f>
         <v>42</v>
       </c>
-      <c r="I53" s="1">
-        <f t="shared" ref="I53:N53" si="2">SUM(I5:I49)</f>
+      <c r="I54" s="1">
+        <f t="shared" ref="I54:N54" si="2">SUM(I5:I49)</f>
         <v>29</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J54" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K54" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L54" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M54" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N54" s="1">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="P53" s="1">
-        <f>SUM(P5:P52)</f>
+      <c r="P54" s="1">
+        <f>SUM(P5:P53)</f>
         <v>676.73000000000025</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">
@@ -2930,7 +2935,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,7 +2947,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D829EAF-0900-4AF7-AC43-7E48A4FF77D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F184F1-F4BC-4586-A544-FF1E862ED990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="129">
   <si>
     <t>Stanley</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>Very wet, round Elvaston castle ground, past Japanese folly and the weir</t>
+  </si>
+  <si>
+    <t>The Bluebell</t>
+  </si>
+  <si>
+    <t>Farnah Green</t>
+  </si>
+  <si>
+    <t>Pub pedal.</t>
   </si>
 </sst>
 </file>
@@ -817,7 +826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +968,7 @@
         <v>3.4050925925925922E-2</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G51" si="1">F6/E6</f>
+        <f t="shared" ref="G6:G52" si="1">F6/E6</f>
         <v>8.3051038843721774E-3</v>
       </c>
       <c r="H6" s="1">
@@ -2860,9 +2869,47 @@
       </c>
     </row>
     <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="A52" s="2">
+        <v>43663</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4.5902777777777772E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1650451212633953E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" s="1">
+        <f>SUM(H52:N52)*E52</f>
+        <v>15.76</v>
+      </c>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -2879,8 +2926,8 @@
         <v>9.6592945374557888E-3</v>
       </c>
       <c r="H54" s="1">
-        <f>SUM(H5:H51)</f>
-        <v>42</v>
+        <f>SUM(H5:H52)</f>
+        <v>43</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" ref="I54:N54" si="2">SUM(I5:I49)</f>
@@ -2908,7 +2955,7 @@
       </c>
       <c r="P54" s="1">
         <f>SUM(P5:P53)</f>
-        <v>676.73000000000025</v>
+        <v>692.49000000000024</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F184F1-F4BC-4586-A544-FF1E862ED990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09688E55-7928-435E-943C-D0B4565FD752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15105" yWindow="1155" windowWidth="21090" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
   <si>
     <t>Stanley</t>
   </si>
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>Pub pedal.</t>
+  </si>
+  <si>
+    <t>The Railway / Arkwrights</t>
+  </si>
+  <si>
+    <t>Hilly run, youths lurking in the woods, Limbo frightens a young lady</t>
+  </si>
+  <si>
+    <t>Alderwasley/Belper</t>
+  </si>
+  <si>
+    <t>The Bear / The Green Dragon</t>
+  </si>
+  <si>
+    <t>Slightly lost in the woods. Wizened old landlord</t>
   </si>
 </sst>
 </file>
@@ -822,26 +837,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P57"/>
+  <dimension ref="A3:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="54.54296875" customWidth="1"/>
+    <col min="15" max="15" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -888,7 +903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>41647</v>
       </c>
@@ -948,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -968,7 +983,7 @@
         <v>3.4050925925925922E-2</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G52" si="1">F6/E6</f>
+        <f t="shared" ref="G6:G57" si="1">F6/E6</f>
         <v>8.3051038843721774E-3</v>
       </c>
       <c r="H6" s="1">
@@ -985,7 +1000,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42291</v>
       </c>
@@ -1065,7 +1080,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42319</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42347</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42389</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42431</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42452</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42480</v>
       </c>
@@ -1329,7 +1344,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42508</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42536</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42564</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42577</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>13.919999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42592</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42641</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42655</v>
       </c>
@@ -1621,7 +1636,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42671</v>
       </c>
@@ -1661,7 +1676,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42690</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42718</v>
       </c>
@@ -1750,7 +1765,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42760</v>
       </c>
@@ -1790,7 +1805,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42781</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>11.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42809</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42844</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42865</v>
       </c>
@@ -1956,7 +1971,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42879</v>
       </c>
@@ -1999,7 +2014,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42907</v>
       </c>
@@ -2036,7 +2051,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42920</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42956</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42991</v>
       </c>
@@ -2165,7 +2180,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43033</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43061</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43117</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43181</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43216</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43244</v>
       </c>
@@ -2460,7 +2475,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43272</v>
       </c>
@@ -2503,7 +2518,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43354</v>
       </c>
@@ -2543,7 +2558,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43384</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43432</v>
       </c>
@@ -2623,7 +2638,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43488</v>
       </c>
@@ -2666,7 +2681,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43523</v>
       </c>
@@ -2709,7 +2724,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43544</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43572</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>121</v>
@@ -2825,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43628</v>
       </c>
@@ -2868,7 +2883,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43663</v>
       </c>
@@ -2911,61 +2926,151 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>43705</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3.7106481481481483E-2</v>
+      </c>
+      <c r="G53" s="3">
+        <f>F53/E53</f>
+        <v>9.0503613369467047E-3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" s="1">
+        <f>SUM(H53:N53)*E53</f>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>43726</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E54" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3.2974537037037038E-2</v>
+      </c>
+      <c r="G54" s="3">
+        <f>F54/E54</f>
+        <v>9.530213016484693E-3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P54" s="1">
+        <f>SUM(H54:N54)*E54</f>
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E59" s="1">
         <f>SUM(E5:E49)</f>
         <v>183.57</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G59" s="3">
         <f>AVERAGE(G6:G49)</f>
         <v>9.6592945374557888E-3</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H59" s="1">
         <f>SUM(H5:H52)</f>
         <v>43</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" ref="I54:N54" si="2">SUM(I5:I49)</f>
+      <c r="I59" s="1">
+        <f t="shared" ref="I59:N59" si="2">SUM(I5:I49)</f>
         <v>29</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K59" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L59" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M59" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N59" s="1">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="P54" s="1">
-        <f>SUM(P5:P53)</f>
-        <v>692.49000000000024</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
+      <c r="P59" s="1">
+        <f>SUM(P5:P58)</f>
+        <v>718.63000000000022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">
@@ -2982,7 +3087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2994,7 +3099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09688E55-7928-435E-943C-D0B4565FD752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA44359D-BF18-4F10-AF04-D9233109344F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="1155" windowWidth="21090" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="825" windowWidth="21090" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="135">
   <si>
     <t>Stanley</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>Slightly lost in the woods. Wizened old landlord</t>
+  </si>
+  <si>
+    <t>Craft ale and wiff waff</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +986,7 @@
         <v>3.4050925925925922E-2</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G57" si="1">F6/E6</f>
+        <f t="shared" ref="G6:G52" si="1">F6/E6</f>
         <v>8.3051038843721774E-3</v>
       </c>
       <c r="H6" s="1">
@@ -2803,7 +2806,7 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f>SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P55" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
@@ -2836,7 +2839,7 @@
         <v>124</v>
       </c>
       <c r="P50" s="1">
-        <f>SUM(H50:N50)*E50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2879,7 +2882,7 @@
         <v>125</v>
       </c>
       <c r="P51" s="1">
-        <f>SUM(H51:N51)*E51</f>
+        <f t="shared" si="2"/>
         <v>21.84</v>
       </c>
     </row>
@@ -2922,7 +2925,7 @@
         <v>128</v>
       </c>
       <c r="P52" s="1">
-        <f>SUM(H52:N52)*E52</f>
+        <f t="shared" si="2"/>
         <v>15.76</v>
       </c>
     </row>
@@ -2962,7 +2965,7 @@
         <v>133</v>
       </c>
       <c r="P53" s="1">
-        <f>SUM(H53:N53)*E53</f>
+        <f t="shared" si="2"/>
         <v>12.299999999999999</v>
       </c>
     </row>
@@ -3005,11 +3008,53 @@
         <v>130</v>
       </c>
       <c r="P54" s="1">
-        <f>SUM(H54:N54)*E54</f>
+        <f t="shared" si="2"/>
         <v>13.84</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43754</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2.9988425925925922E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <f>F55/E55</f>
+        <v>8.471306758736136E-3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="2"/>
+        <v>14.16</v>
+      </c>
+    </row>
     <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
@@ -3035,32 +3080,32 @@
         <v>43</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" ref="I59:N59" si="2">SUM(I5:I49)</f>
+        <f t="shared" ref="I59:N59" si="3">SUM(I5:I49)</f>
         <v>29</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="P59" s="1">
         <f>SUM(P5:P58)</f>
-        <v>718.63000000000022</v>
+        <v>732.79000000000019</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA44359D-BF18-4F10-AF04-D9233109344F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEDBDD-BE1C-4372-876A-A895854AF724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="825" windowWidth="21090" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="810" windowWidth="19815" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="138">
   <si>
     <t>Stanley</t>
   </si>
@@ -435,6 +437,15 @@
   </si>
   <si>
     <t>Craft ale and wiff waff</t>
+  </si>
+  <si>
+    <t>The Malt Shovel</t>
+  </si>
+  <si>
+    <t>Wirksworth Moor</t>
+  </si>
+  <si>
+    <t>Astronomical observations, Black Rocks</t>
   </si>
 </sst>
 </file>
@@ -840,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P62"/>
+  <dimension ref="A3:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2817,7 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P55" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P56" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
@@ -3055,67 +3066,107 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4.08912037037037E-2</v>
+      </c>
+      <c r="G56" s="1">
+        <f>F56/E56</f>
+        <v>1.5089005056717232E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="2"/>
+        <v>8.129999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E59" s="1">
+      <c r="A59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E60" s="1">
         <f>SUM(E5:E49)</f>
         <v>183.57</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="3">
         <f>AVERAGE(G6:G49)</f>
         <v>9.6592945374557888E-3</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <f>SUM(H5:H52)</f>
         <v>43</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" ref="I59:N59" si="3">SUM(I5:I49)</f>
+      <c r="I60" s="1">
+        <f t="shared" ref="I60:N60" si="3">SUM(I5:I49)</f>
         <v>29</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K60" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N60" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="P59" s="1">
-        <f>SUM(P5:P58)</f>
-        <v>732.79000000000019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
+      <c r="P60" s="1">
+        <f>SUM(P5:P59)</f>
+        <v>740.92000000000019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEDBDD-BE1C-4372-876A-A895854AF724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7310264-0026-4C79-9AAC-FAE927CEDB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="810" windowWidth="19815" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1155" windowWidth="19815" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="141">
   <si>
     <t>Stanley</t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>Astronomical observations, Black Rocks</t>
+  </si>
+  <si>
+    <t>The Jug of Wine</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Trespass, "Oi, where you going?", charming old church</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,7 +2826,7 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P56" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P57" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
@@ -3106,7 +3115,49 @@
         <v>8.129999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <f>F57/E57</f>
+        <v>1.1089296102385108E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="2"/>
+        <v>15.28</v>
+      </c>
+    </row>
     <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="F58" s="3"/>
@@ -3156,7 +3207,7 @@
       </c>
       <c r="P60" s="1">
         <f>SUM(P5:P59)</f>
-        <v>740.92000000000019</v>
+        <v>756.20000000000016</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7310264-0026-4C79-9AAC-FAE927CEDB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D56FC41-B413-4D3E-8622-D61B41C454BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1155" windowWidth="19815" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
   <si>
     <t>Stanley</t>
   </si>
@@ -455,6 +455,21 @@
   </si>
   <si>
     <t>Trespass, "Oi, where you going?", charming old church</t>
+  </si>
+  <si>
+    <t>Bargates</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>Lockdown virtual catch-up</t>
+  </si>
+  <si>
+    <t>Socially distanced</t>
   </si>
 </sst>
 </file>
@@ -860,26 +875,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P63"/>
+  <dimension ref="A3:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.81640625" customWidth="1"/>
     <col min="8" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="54.5703125" customWidth="1"/>
+    <col min="15" max="15" width="54.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -926,7 +941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -956,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>41647</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -1063,7 +1078,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42291</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42319</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42347</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42389</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42431</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42452</v>
       </c>
@@ -1321,7 +1336,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42480</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42508</v>
       </c>
@@ -1410,7 +1425,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42536</v>
       </c>
@@ -1453,7 +1468,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42564</v>
       </c>
@@ -1496,7 +1511,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42577</v>
       </c>
@@ -1536,7 +1551,7 @@
         <v>13.919999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42592</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42641</v>
       </c>
@@ -1616,7 +1631,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42655</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42671</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42690</v>
       </c>
@@ -1745,7 +1760,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42718</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42760</v>
       </c>
@@ -1828,7 +1843,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42781</v>
       </c>
@@ -1871,7 +1886,7 @@
         <v>11.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42809</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42844</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42865</v>
       </c>
@@ -1994,7 +2009,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42879</v>
       </c>
@@ -2037,7 +2052,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42907</v>
       </c>
@@ -2074,7 +2089,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42920</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42956</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42991</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43033</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43061</v>
       </c>
@@ -2286,7 +2301,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43117</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2372,7 +2387,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43181</v>
       </c>
@@ -2412,7 +2427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43216</v>
       </c>
@@ -2458,7 +2473,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43244</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43272</v>
       </c>
@@ -2541,7 +2556,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43354</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43384</v>
       </c>
@@ -2621,7 +2636,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43432</v>
       </c>
@@ -2661,7 +2676,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43488</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43523</v>
       </c>
@@ -2747,7 +2762,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43544</v>
       </c>
@@ -2790,7 +2805,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43572</v>
       </c>
@@ -2826,11 +2841,11 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P57" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P59" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>121</v>
@@ -2863,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43628</v>
       </c>
@@ -2906,7 +2921,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43663</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43705</v>
       </c>
@@ -2989,7 +3004,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43726</v>
       </c>
@@ -3032,7 +3047,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43754</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43845</v>
       </c>
@@ -3115,7 +3130,7 @@
         <v>8.129999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43887</v>
       </c>
@@ -3158,66 +3173,136 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E60" s="1">
-        <f>SUM(E5:E49)</f>
-        <v>183.57</v>
-      </c>
-      <c r="G60" s="3">
-        <f>AVERAGE(G6:G49)</f>
-        <v>9.6592945374557888E-3</v>
-      </c>
-      <c r="H60" s="1">
-        <f>SUM(H5:H52)</f>
-        <v>43</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" ref="I60:N60" si="3">SUM(I5:I49)</f>
-        <v>29</v>
-      </c>
-      <c r="J60" s="1">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="3"/>
+    <row r="58" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P58" s="1">
         <v>0</v>
       </c>
-      <c r="L60" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M60" s="1">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3.636574074074074E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <f>F59/E59</f>
+        <v>1.0791020991317726E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="2"/>
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <f>SUM(E5:E59)</f>
+        <v>213.97</v>
+      </c>
+      <c r="G61" s="3">
+        <f>AVERAGE(G6:G59)</f>
+        <v>9.8056799560196119E-3</v>
+      </c>
+      <c r="H61" s="1">
+        <f>SUM(H5:H59)</f>
+        <v>49</v>
+      </c>
+      <c r="I61" s="1">
+        <f>SUM(I5:I59)</f>
+        <v>34</v>
+      </c>
+      <c r="J61" s="1">
+        <f>SUM(J5:J59)</f>
+        <v>49</v>
+      </c>
+      <c r="K61" s="1">
+        <f>SUM(K5:K59)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <f>SUM(L5:L59)</f>
+        <v>8</v>
+      </c>
+      <c r="M61" s="1">
+        <f>SUM(M5:M59)</f>
         <v>4</v>
       </c>
-      <c r="N60" s="1">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="P60" s="1">
-        <f>SUM(P5:P59)</f>
-        <v>756.20000000000016</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
+      <c r="N61" s="1">
+        <f>SUM(N5:N59)</f>
+        <v>50</v>
+      </c>
+      <c r="P61" s="1">
+        <f>SUM(P5:P60)</f>
+        <v>766.31000000000017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">
@@ -3234,7 +3319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3246,7 +3331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Users\richa\Documents\root\activities\fitness\pubrunner.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D56FC41-B413-4D3E-8622-D61B41C454BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E54618-D3DB-4744-956E-427DFA5411EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
   <si>
     <t>Stanley</t>
   </si>
@@ -470,6 +468,9 @@
   </si>
   <si>
     <t>Socially distanced</t>
+  </si>
+  <si>
+    <t>Windley moated manorial complex</t>
   </si>
 </sst>
 </file>
@@ -875,11 +876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P64"/>
+  <dimension ref="A3:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2841,7 +2842,7 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P59" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P60" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
@@ -3249,60 +3250,100 @@
       </c>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="A60" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4.3784722222222218E-2</v>
+      </c>
+      <c r="G60" s="3">
+        <f>F60/E60</f>
+        <v>1.057601986044015E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="2"/>
+        <v>12.419999999999998</v>
+      </c>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="E61" s="1">
-        <f>SUM(E5:E59)</f>
-        <v>213.97</v>
-      </c>
-      <c r="G61" s="3">
-        <f>AVERAGE(G6:G59)</f>
-        <v>9.8056799560196119E-3</v>
-      </c>
-      <c r="H61" s="1">
-        <f>SUM(H5:H59)</f>
+      <c r="A61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="E62" s="1">
+        <f>SUM(E5:E60)</f>
+        <v>218.10999999999999</v>
+      </c>
+      <c r="G62" s="3">
+        <f>AVERAGE(G6:G60)</f>
+        <v>9.8202146711973571E-3</v>
+      </c>
+      <c r="H62" s="1">
+        <f>SUM(H5:H60)</f>
+        <v>50</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" ref="H62:N62" si="3">SUM(I5:I59)</f>
+        <v>34</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="I61" s="1">
-        <f>SUM(I5:I59)</f>
-        <v>34</v>
-      </c>
-      <c r="J61" s="1">
-        <f>SUM(J5:J59)</f>
-        <v>49</v>
-      </c>
-      <c r="K61" s="1">
-        <f>SUM(K5:K59)</f>
+      <c r="K62" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L61" s="1">
-        <f>SUM(L5:L59)</f>
+      <c r="L62" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M61" s="1">
-        <f>SUM(M5:M59)</f>
+      <c r="M62" s="1">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N61" s="1">
-        <f>SUM(N5:N59)</f>
-        <v>50</v>
-      </c>
-      <c r="P61" s="1">
-        <f>SUM(P5:P60)</f>
-        <v>766.31000000000017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
+      <c r="N62" s="1">
+        <f>SUM(N5:N60)</f>
+        <v>51</v>
+      </c>
+      <c r="P62" s="1">
+        <f>SUM(P5:P61)</f>
+        <v>778.73000000000013</v>
+      </c>
+    </row>
+    <row r="65" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">
@@ -3311,28 +3352,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Users\richa\Documents\root\activities\fitness\pubrunner.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\root\activities\fitness\pubrunner.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E54618-D3DB-4744-956E-427DFA5411EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DABC27B-2E97-4BD1-95A9-78A6486846D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="585" windowWidth="15840" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="149">
   <si>
     <t>Stanley</t>
   </si>
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>Windley moated manorial complex</t>
+  </si>
+  <si>
+    <t>Back after lockdown</t>
+  </si>
+  <si>
+    <t>A gentle trot to Makeney and back</t>
   </si>
 </sst>
 </file>
@@ -876,26 +882,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P65"/>
+  <dimension ref="A3:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="54.54296875" customWidth="1"/>
+    <col min="15" max="15" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -942,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -972,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>41647</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42291</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42319</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42347</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42389</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42431</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42452</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42480</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42508</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42536</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42564</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42577</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>13.919999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42592</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42641</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42655</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42671</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42690</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42718</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42760</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42781</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>11.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42809</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42844</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42865</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42879</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42907</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42920</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42956</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42991</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43033</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43061</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43117</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43181</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43216</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43244</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43272</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43354</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43384</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43432</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43488</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43523</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43544</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43572</v>
       </c>
@@ -2842,11 +2848,11 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P60" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P62" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>121</v>
@@ -2879,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43628</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43663</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43705</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43726</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43754</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43845</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>8.129999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43887</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44013</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44062</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44097</v>
       </c>
@@ -3289,61 +3295,144 @@
         <v>12.419999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2.0219907407407409E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <f>F61/E61</f>
+        <v>1.1755760120585703E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="2"/>
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E62" s="1">
-        <f>SUM(E5:E60)</f>
-        <v>218.10999999999999</v>
+        <v>2.33</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2.3738425925925923E-2</v>
       </c>
       <c r="G62" s="3">
-        <f>AVERAGE(G6:G60)</f>
-        <v>9.8202146711973571E-3</v>
+        <f>F62/E62</f>
+        <v>1.0188165633444601E-2</v>
       </c>
       <c r="H62" s="1">
-        <f>SUM(H5:H60)</f>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" ref="H62:N62" si="3">SUM(I5:I59)</f>
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="2"/>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E64" s="1">
+        <f>SUM(E5:E62)</f>
+        <v>222.16</v>
+      </c>
+      <c r="G64" s="3">
+        <f>AVERAGE(G6:G62)</f>
+        <v>9.8620964241361853E-3</v>
+      </c>
+      <c r="H64" s="1">
+        <f>SUM(H5:H62)</f>
+        <v>52</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" ref="I64:M64" si="3">SUM(I5:I59)</f>
         <v>34</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J64" s="1">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K64" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L64" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M64" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N62" s="1">
-        <f>SUM(N5:N60)</f>
-        <v>51</v>
-      </c>
-      <c r="P62" s="1">
-        <f>SUM(P5:P61)</f>
-        <v>778.73000000000013</v>
-      </c>
-    </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
+      <c r="N64" s="1">
+        <f>SUM(N5:N62)</f>
+        <v>53</v>
+      </c>
+      <c r="P64" s="1">
+        <f>SUM(P5:P63)</f>
+        <v>792.60000000000014</v>
+      </c>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\root\activities\fitness\pubrunner.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DABC27B-2E97-4BD1-95A9-78A6486846D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA62C2C-B070-4C4C-9996-CA407CA3F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="585" windowWidth="15840" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
   <si>
     <t>Stanley</t>
   </si>
@@ -477,6 +477,24 @@
   </si>
   <si>
     <t>A gentle trot to Makeney and back</t>
+  </si>
+  <si>
+    <t>The Admiral Rodney</t>
+  </si>
+  <si>
+    <t>Wollaton</t>
+  </si>
+  <si>
+    <t>Bicycle repair man</t>
+  </si>
+  <si>
+    <t>Darley Abbey</t>
+  </si>
+  <si>
+    <t>The Shed / The Furnace</t>
+  </si>
+  <si>
+    <t>Lost in the nature reserve, highland cattle</t>
   </si>
 </sst>
 </file>
@@ -882,26 +900,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P67"/>
+  <dimension ref="A3:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.81640625" customWidth="1"/>
     <col min="8" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="54.5703125" customWidth="1"/>
+    <col min="15" max="15" width="54.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -948,7 +966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -978,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>41647</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -1045,7 +1063,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42291</v>
       </c>
@@ -1125,7 +1143,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42319</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42347</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42389</v>
       </c>
@@ -1257,7 +1275,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42431</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42452</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42480</v>
       </c>
@@ -1389,7 +1407,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42508</v>
       </c>
@@ -1432,7 +1450,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42536</v>
       </c>
@@ -1475,7 +1493,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42564</v>
       </c>
@@ -1518,7 +1536,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42577</v>
       </c>
@@ -1558,7 +1576,7 @@
         <v>13.919999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42592</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42641</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42655</v>
       </c>
@@ -1681,7 +1699,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42671</v>
       </c>
@@ -1721,7 +1739,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42690</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42718</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42760</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42781</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>11.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42809</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42844</v>
       </c>
@@ -1973,7 +1991,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42865</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42879</v>
       </c>
@@ -2059,7 +2077,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42907</v>
       </c>
@@ -2096,7 +2114,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42920</v>
       </c>
@@ -2142,7 +2160,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42956</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42991</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43033</v>
       </c>
@@ -2268,7 +2286,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43061</v>
       </c>
@@ -2308,7 +2326,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43117</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43181</v>
       </c>
@@ -2434,7 +2452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43216</v>
       </c>
@@ -2480,7 +2498,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43244</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43272</v>
       </c>
@@ -2563,7 +2581,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43354</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43384</v>
       </c>
@@ -2643,7 +2661,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43432</v>
       </c>
@@ -2683,7 +2701,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43488</v>
       </c>
@@ -2726,7 +2744,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43523</v>
       </c>
@@ -2769,7 +2787,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43544</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43572</v>
       </c>
@@ -2848,11 +2866,11 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P62" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P64" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>121</v>
@@ -2885,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43628</v>
       </c>
@@ -2928,7 +2946,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43663</v>
       </c>
@@ -2971,7 +2989,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43705</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43726</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43754</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43845</v>
       </c>
@@ -3137,7 +3155,7 @@
         <v>8.129999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43887</v>
       </c>
@@ -3180,7 +3198,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44013</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44062</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44097</v>
       </c>
@@ -3295,7 +3313,7 @@
         <v>12.419999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44307</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44335</v>
       </c>
@@ -3378,61 +3396,147 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4.2106481481481488E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <f>F63/E63</f>
+        <v>1.0001539544294891E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="2"/>
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E64" s="1">
-        <f>SUM(E5:E62)</f>
-        <v>222.16</v>
+        <v>3.2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>3.1261574074074074E-2</v>
       </c>
       <c r="G64" s="3">
-        <f>AVERAGE(G6:G62)</f>
-        <v>9.8620964241361853E-3</v>
+        <f>F64/E64</f>
+        <v>9.7692418981481476E-3</v>
       </c>
       <c r="H64" s="1">
-        <f>SUM(H5:H62)</f>
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" ref="I64:M64" si="3">SUM(I5:I59)</f>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <f>SUM(E5:E64)</f>
+        <v>229.57</v>
+      </c>
+      <c r="G66" s="3">
+        <f>AVERAGE(G6:G64)</f>
+        <v>9.8629137678935639E-3</v>
+      </c>
+      <c r="H66" s="1">
+        <f>SUM(H5:H64)</f>
+        <v>54</v>
+      </c>
+      <c r="I66" s="1">
+        <f>SUM(I5:I64)</f>
+        <v>38</v>
+      </c>
+      <c r="J66" s="1">
+        <f>SUM(J5:J64)</f>
+        <v>53</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" ref="I66:M66" si="3">SUM(K5:K59)</f>
         <v>0</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L66" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M66" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N64" s="1">
-        <f>SUM(N5:N62)</f>
-        <v>53</v>
-      </c>
-      <c r="P64" s="1">
-        <f>SUM(P5:P63)</f>
-        <v>792.60000000000014</v>
-      </c>
-    </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
+      <c r="N66" s="1">
+        <f>SUM(N5:N64)</f>
+        <v>55</v>
+      </c>
+      <c r="P66" s="1">
+        <f>SUM(P5:P64)</f>
+        <v>822.24000000000012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA62C2C-B070-4C4C-9996-CA407CA3F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB5D6F3-4BF1-4BE0-8CC2-0C5D6F504587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2880" windowWidth="13605" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="156">
   <si>
     <t>Stanley</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Lost in the nature reserve, highland cattle</t>
+  </si>
+  <si>
+    <t>Bomb factory</t>
   </si>
 </sst>
 </file>
@@ -900,26 +903,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P69"/>
+  <dimension ref="A3:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="54.54296875" customWidth="1"/>
+    <col min="15" max="15" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -966,7 +969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>41647</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42291</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42319</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42347</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42389</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42431</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42452</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42480</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42508</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42536</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42564</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42577</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>13.919999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42592</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42641</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42655</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42671</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42690</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42718</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42760</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42781</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>11.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42809</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42844</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42865</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42879</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42907</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42920</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42956</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42991</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43033</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43061</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43117</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43181</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43216</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43244</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43272</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43354</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43384</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43432</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43488</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43523</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43544</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43572</v>
       </c>
@@ -2866,11 +2869,11 @@
         <v>120</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:P64" si="2">SUM(H49:N49)*E49</f>
+        <f t="shared" ref="P49:P65" si="2">SUM(H49:N49)*E49</f>
         <v>9.69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>121</v>
@@ -2903,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43628</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43663</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43705</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43726</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43754</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43845</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>8.129999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43887</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44013</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44062</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="G59" s="3">
-        <f>F59/E59</f>
+        <f t="shared" ref="G59:G65" si="3">F59/E59</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="H59" s="1">
@@ -3273,7 +3276,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44097</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>4.3784722222222218E-2</v>
       </c>
       <c r="G60" s="3">
-        <f>F60/E60</f>
+        <f t="shared" si="3"/>
         <v>1.057601986044015E-2</v>
       </c>
       <c r="H60" s="1">
@@ -3313,7 +3316,7 @@
         <v>12.419999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44307</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>2.0219907407407409E-2</v>
       </c>
       <c r="G61" s="3">
-        <f>F61/E61</f>
+        <f t="shared" si="3"/>
         <v>1.1755760120585703E-2</v>
       </c>
       <c r="H61" s="1">
@@ -3356,7 +3359,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44335</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>2.3738425925925923E-2</v>
       </c>
       <c r="G62" s="3">
-        <f>F62/E62</f>
+        <f t="shared" si="3"/>
         <v>1.0188165633444601E-2</v>
       </c>
       <c r="H62" s="1">
@@ -3396,7 +3399,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44370</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>4.2106481481481488E-2</v>
       </c>
       <c r="G63" s="3">
-        <f>F63/E63</f>
+        <f t="shared" si="3"/>
         <v>1.0001539544294891E-2</v>
       </c>
       <c r="H63" s="1">
@@ -3439,7 +3442,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44482</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>3.1261574074074074E-2</v>
       </c>
       <c r="G64" s="3">
-        <f>F64/E64</f>
+        <f t="shared" si="3"/>
         <v>9.7692418981481476E-3</v>
       </c>
       <c r="H64" s="1">
@@ -3482,61 +3485,101 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1">
-        <f>SUM(E5:E64)</f>
-        <v>229.57</v>
-      </c>
-      <c r="G66" s="3">
-        <f>AVERAGE(G6:G64)</f>
-        <v>9.8629137678935639E-3</v>
-      </c>
-      <c r="H66" s="1">
-        <f>SUM(H5:H64)</f>
-        <v>54</v>
-      </c>
-      <c r="I66" s="1">
-        <f>SUM(I5:I64)</f>
-        <v>38</v>
-      </c>
-      <c r="J66" s="1">
+    <row r="65" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3.8564814814814816E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1511885019347705E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="2"/>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E67" s="1">
+        <f>SUM(E5:E65)</f>
+        <v>232.92</v>
+      </c>
+      <c r="G67" s="3">
+        <f>AVERAGE(G6:G65)</f>
+        <v>9.8913443067117392E-3</v>
+      </c>
+      <c r="H67" s="1">
+        <f>SUM(H5:H65)</f>
+        <v>55</v>
+      </c>
+      <c r="I67" s="1">
+        <f>SUM(I5:I65)</f>
+        <v>39</v>
+      </c>
+      <c r="J67" s="1">
         <f>SUM(J5:J64)</f>
         <v>53</v>
       </c>
-      <c r="K66" s="1">
-        <f t="shared" ref="I66:M66" si="3">SUM(K5:K59)</f>
+      <c r="K67" s="1">
+        <f t="shared" ref="K67:M67" si="4">SUM(K5:K59)</f>
         <v>0</v>
       </c>
-      <c r="L66" s="1">
-        <f t="shared" si="3"/>
+      <c r="L67" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M66" s="1">
-        <f t="shared" si="3"/>
+      <c r="M67" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="N66" s="1">
-        <f>SUM(N5:N64)</f>
-        <v>55</v>
-      </c>
-      <c r="P66" s="1">
+      <c r="N67" s="1">
+        <f>SUM(N5:N65)</f>
+        <v>56</v>
+      </c>
+      <c r="P67" s="1">
         <f>SUM(P5:P64)</f>
         <v>822.24000000000012</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L13">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Documents\root\home_and_family\fitness\pubrunner.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CC024-A0B5-453B-8A82-A61475299A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0F1BE-52EC-4955-AFE6-ABF564AD3EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
   <si>
     <t>Stanley</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>Tar pits / Old kilns by A38?</t>
+  </si>
+  <si>
+    <t>The Bell and Harp</t>
+  </si>
+  <si>
+    <t>Barn owl, emus</t>
   </si>
 </sst>
 </file>
@@ -986,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3009,7 +3015,7 @@
         <v>120</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P64" si="2">SUM(H47:N47)*E47</f>
+        <f t="shared" ref="P47:P65" si="2">SUM(H47:N47)*E47</f>
         <v>9.69</v>
       </c>
       <c r="Q47" s="1" t="s">
@@ -3408,7 +3414,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G64" si="3">F57/E57</f>
+        <f t="shared" ref="G57:G65" si="3">F57/E57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="H57" s="1">
@@ -3736,60 +3742,100 @@
       </c>
     </row>
     <row r="65" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2.9409722222222223E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1311431623931624E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8000000000000007</v>
+      </c>
     </row>
     <row r="66" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1">
-        <f>SUM(E3:E64)</f>
-        <v>236.82</v>
-      </c>
-      <c r="G66" s="3">
-        <f>AVERAGE(G4:G64)</f>
-        <v>9.9072901023405727E-3</v>
-      </c>
-      <c r="H66" s="1">
-        <f t="shared" ref="H66:L66" si="4">SUM(H3:H64)</f>
-        <v>56</v>
-      </c>
-      <c r="I66" s="1">
-        <f t="shared" si="4"/>
+      <c r="A66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1">
+        <f>SUM(E3:E65)</f>
+        <v>239.42</v>
+      </c>
+      <c r="G67" s="3">
+        <f>AVERAGE(G4:G65)</f>
+        <v>9.9306924610337577E-3</v>
+      </c>
+      <c r="H67" s="1">
+        <f>SUM(H3:H65)</f>
+        <v>57</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="H67:L67" si="4">SUM(I3:I64)</f>
         <v>40</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J67" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K67" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L67" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M67" s="1">
         <f>SUM(M3:M64)</f>
         <v>4</v>
       </c>
-      <c r="N66" s="1">
-        <f>SUM(N3:N64)</f>
-        <v>57</v>
-      </c>
-      <c r="P66" s="1">
-        <f>SUM(P3:P64)</f>
-        <v>847.8900000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="N67" s="1">
+        <f>SUM(N3:N65)</f>
+        <v>58</v>
+      </c>
+      <c r="P67" s="1">
+        <f>SUM(P3:P65)</f>
+        <v>855.69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\root\activities\fitness_outdoors\pubrunner.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0F1BE-52EC-4955-AFE6-ABF564AD3EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C48C5-E3D9-4A9C-B5E1-A63F4648A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="930" windowWidth="16485" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pub runs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
   <si>
     <t>Stanley</t>
   </si>
@@ -579,6 +579,21 @@
   </si>
   <si>
     <t>Barn owl, emus</t>
+  </si>
+  <si>
+    <t>Belper House</t>
+  </si>
+  <si>
+    <t>Hilly run, lively boozer</t>
+  </si>
+  <si>
+    <t>Refurbed pub</t>
+  </si>
+  <si>
+    <t>The Navigation</t>
+  </si>
+  <si>
+    <t>Over the golf course</t>
   </si>
 </sst>
 </file>
@@ -992,26 +1007,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.81640625" customWidth="1"/>
-    <col min="8" max="14" width="2.54296875" customWidth="1"/>
-    <col min="15" max="15" width="39.453125" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41647</v>
       </c>
@@ -1127,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42144</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42186</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42291</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42319</v>
       </c>
@@ -1290,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42347</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42389</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42431</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42452</v>
       </c>
@@ -1462,7 +1477,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42480</v>
       </c>
@@ -1511,7 +1526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42508</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42536</v>
       </c>
@@ -1597,7 +1612,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42564</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42577</v>
       </c>
@@ -1683,7 +1698,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42592</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42641</v>
       </c>
@@ -1769,7 +1784,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42655</v>
       </c>
@@ -1812,7 +1827,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42671</v>
       </c>
@@ -1852,7 +1867,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42690</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42718</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42760</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42781</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42809</v>
       </c>
@@ -2079,7 +2094,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42844</v>
       </c>
@@ -2116,7 +2131,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42865</v>
       </c>
@@ -2159,7 +2174,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42879</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42907</v>
       </c>
@@ -2242,7 +2257,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42920</v>
       </c>
@@ -2288,7 +2303,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42956</v>
       </c>
@@ -2328,7 +2343,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42991</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43033</v>
       </c>
@@ -2414,7 +2429,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43061</v>
       </c>
@@ -2454,7 +2469,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43117</v>
       </c>
@@ -2497,7 +2512,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43152</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43181</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43216</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43244</v>
       </c>
@@ -2675,7 +2690,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43272</v>
       </c>
@@ -2718,7 +2733,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43354</v>
       </c>
@@ -2758,7 +2773,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43384</v>
       </c>
@@ -2798,7 +2813,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43432</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43488</v>
       </c>
@@ -2890,7 +2905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43523</v>
       </c>
@@ -2933,7 +2948,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43544</v>
       </c>
@@ -2979,7 +2994,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43572</v>
       </c>
@@ -3015,14 +3030,14 @@
         <v>120</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P65" si="2">SUM(H47:N47)*E47</f>
+        <f t="shared" ref="P47:P68" si="2">SUM(H47:N47)*E47</f>
         <v>9.69</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>121</v>
@@ -3055,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43628</v>
       </c>
@@ -3101,7 +3116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43663</v>
       </c>
@@ -3144,7 +3159,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43705</v>
       </c>
@@ -3184,7 +3199,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43726</v>
       </c>
@@ -3227,7 +3242,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43754</v>
       </c>
@@ -3270,7 +3285,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43845</v>
       </c>
@@ -3313,7 +3328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43887</v>
       </c>
@@ -3359,7 +3374,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44013</v>
       </c>
@@ -3394,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44062</v>
       </c>
@@ -3414,7 +3429,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G65" si="3">F57/E57</f>
+        <f t="shared" ref="G57:G68" si="3">F57/E57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="H57" s="1">
@@ -3434,7 +3449,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44097</v>
       </c>
@@ -3477,7 +3492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44307</v>
       </c>
@@ -3520,7 +3535,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44335</v>
       </c>
@@ -3560,7 +3575,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44370</v>
       </c>
@@ -3606,7 +3621,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44482</v>
       </c>
@@ -3652,7 +3667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44510</v>
       </c>
@@ -3695,7 +3710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44587</v>
       </c>
@@ -3741,7 +3756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44706</v>
       </c>
@@ -3781,61 +3796,187 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2.9409722222222223E-2</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2003968253968253E-2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E67" s="1">
-        <f>SUM(E3:E65)</f>
-        <v>239.42</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2.4594907407407409E-2</v>
       </c>
       <c r="G67" s="3">
-        <f>AVERAGE(G4:G65)</f>
-        <v>9.9306924610337577E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.0882702392658147E-2</v>
       </c>
       <c r="H67" s="1">
-        <f>SUM(H3:H65)</f>
-        <v>57</v>
-      </c>
-      <c r="I67" s="1">
-        <f t="shared" ref="H67:L67" si="4">SUM(I3:I64)</f>
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7799999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="1">
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3.3379629629629634E-2</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6524569123579028E-2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="2"/>
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E70" s="1">
+        <f>SUM(E3:E68)</f>
+        <v>246.14999999999998</v>
+      </c>
+      <c r="G70" s="3">
+        <f>AVERAGE(G4:G68)</f>
+        <v>1.0083377578289377E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <f>SUM(H3:H68)</f>
+        <v>60</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" ref="I70:L70" si="4">SUM(I3:I64)</f>
+        <v>40</v>
+      </c>
+      <c r="J70" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K70" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L70" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M70" s="1">
         <f>SUM(M3:M64)</f>
         <v>4</v>
       </c>
-      <c r="N67" s="1">
-        <f>SUM(N3:N65)</f>
-        <v>58</v>
-      </c>
-      <c r="P67" s="1">
-        <f>SUM(P3:P65)</f>
-        <v>855.69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="N70" s="1">
+        <f>SUM(N3:N68)</f>
+        <v>61</v>
+      </c>
+      <c r="P70" s="1">
+        <f>SUM(P3:P68)</f>
+        <v>880.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\root\activities\fitness_outdoors\pubrunner.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C48C5-E3D9-4A9C-B5E1-A63F4648A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239681F2-7544-4348-8E5D-349C10D659B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="930" windowWidth="16485" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="17595" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pub runs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="193">
   <si>
     <t>Stanley</t>
   </si>
@@ -594,6 +594,21 @@
   </si>
   <si>
     <t>Over the golf course</t>
+  </si>
+  <si>
+    <t>The Hoptimist</t>
+  </si>
+  <si>
+    <t>Spondon</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>S4007/TP2628 - Crow Wood Farm</t>
+  </si>
+  <si>
+    <t>Attacked by herd of deer</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,13 +1035,14 @@
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="14" width="2.5703125" customWidth="1"/>
-    <col min="15" max="15" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="15" width="2.5703125" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1040,49 +1056,52 @@
         <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1095,24 +1114,24 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P46" si="0">SUM(H2:N2)*E2</f>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:Q46" si="0">SUM(I2:O2)*F2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41647</v>
       </c>
@@ -1125,24 +1144,24 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42144</v>
       </c>
@@ -1155,31 +1174,31 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3.4050925925925922E-2</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G50" si="1">F4/E4</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H50" si="1">G4/F4</f>
         <v>8.3051038843721774E-3</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42186</v>
       </c>
@@ -1192,34 +1211,34 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2.5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>2.6400462962962962E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>1.0560185185185185E-2</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42291</v>
       </c>
@@ -1232,34 +1251,34 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>3.8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>2.8981481481481483E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>7.6267056530214435E-3</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="0"/>
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42319</v>
       </c>
@@ -1272,40 +1291,40 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>3.5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>3.2071759259259258E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>9.1633597883597883E-3</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42347</v>
       </c>
@@ -1318,37 +1337,37 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3.1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2.3009259259259257E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>7.4223416965352442E-3</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42389</v>
       </c>
@@ -1361,37 +1380,37 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>5.4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5.0104166666666672E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>9.2785493827160503E-3</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <f t="shared" si="0"/>
         <v>21.6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42431</v>
       </c>
@@ -1404,40 +1423,40 @@
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2.4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2.1712962962962962E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>9.0470679012345685E-3</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42452</v>
       </c>
@@ -1450,34 +1469,34 @@
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>5.45</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>4.0914351851851848E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>7.5072205232755681E-3</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="0"/>
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42480</v>
       </c>
@@ -1490,43 +1509,43 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>4.13</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4.5243055555555557E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>1.0954735001345171E-2</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="0"/>
         <v>20.65</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42508</v>
       </c>
@@ -1539,37 +1558,37 @@
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>4.43</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>4.3043981481481482E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>9.7164743750522541E-3</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="0"/>
         <v>17.72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42536</v>
       </c>
@@ -1582,37 +1601,37 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>6.29</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5.6192129629629634E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>8.9335659188600376E-3</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <f t="shared" si="0"/>
         <v>25.16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42564</v>
       </c>
@@ -1625,37 +1644,37 @@
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>4.71</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>7.4309978768577487E-3</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="0"/>
         <v>18.84</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42577</v>
       </c>
@@ -1668,37 +1687,37 @@
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>3.5833333333333335E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>7.7227011494252883E-3</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="0"/>
         <v>13.919999999999998</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42592</v>
       </c>
@@ -1711,34 +1730,34 @@
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>5.15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4.4803240740740741E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>8.6996583962603378E-3</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="0"/>
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42641</v>
       </c>
@@ -1751,40 +1770,40 @@
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>3.29</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3.1828703703703706E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>9.6743780254418561E-3</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="0"/>
         <v>9.870000000000001</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42655</v>
       </c>
@@ -1797,37 +1816,37 @@
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>4.38</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>4.2245370370370371E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>9.6450617283950612E-3</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="0"/>
         <v>17.52</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42671</v>
       </c>
@@ -1840,34 +1859,34 @@
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>3.45</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2.5023148148148145E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>7.2530864197530853E-3</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="0"/>
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42690</v>
       </c>
@@ -1880,40 +1899,40 @@
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>3.91</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3.7025462962962961E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>9.4694278677654627E-3</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="0"/>
         <v>19.55</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42718</v>
       </c>
@@ -1926,40 +1945,40 @@
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>4.57</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5.4340277777777779E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
         <v>1.1890651592511549E-2</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="0"/>
         <v>13.71</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42760</v>
       </c>
@@ -1972,34 +1991,34 @@
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>3.11</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2.297453703703704E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
         <v>7.3873109443849004E-3</v>
       </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="0"/>
         <v>9.33</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42781</v>
       </c>
@@ -2012,40 +2031,40 @@
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>3.95</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4.0555555555555553E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
         <v>1.0267229254571025E-2</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <f t="shared" si="0"/>
         <v>11.850000000000001</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42809</v>
       </c>
@@ -2058,43 +2077,43 @@
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>2.89</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>3.9050925925925926E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
         <v>1.3512431116237344E-2</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <f t="shared" si="0"/>
         <v>11.56</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42844</v>
       </c>
@@ -2107,31 +2126,31 @@
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>3.84</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2.6990740740740742E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <f t="shared" si="1"/>
         <v>7.0288387345679021E-3</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <f t="shared" si="0"/>
         <v>7.68</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42865</v>
       </c>
@@ -2144,37 +2163,37 @@
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>4.87</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4.9537037037037039E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
         <v>1.0171876188303293E-2</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <f t="shared" si="0"/>
         <v>19.48</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42879</v>
       </c>
@@ -2187,40 +2206,40 @@
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>5.29</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>4.4224537037037041E-2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
         <v>8.3600259049219361E-3</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <f t="shared" si="0"/>
         <v>21.16</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42907</v>
       </c>
@@ -2233,31 +2252,31 @@
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>4.76</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>4.5115740740740741E-2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <f t="shared" si="1"/>
         <v>9.4780967942732653E-3</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <f t="shared" si="0"/>
         <v>9.52</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42920</v>
       </c>
@@ -2270,40 +2289,40 @@
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>4.75</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>4.8506944444444443E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <f t="shared" si="1"/>
         <v>1.0211988304093566E-2</v>
       </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
       <c r="I30" s="1">
         <v>1</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="1">
+      <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <f t="shared" si="0"/>
         <v>23.75</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42956</v>
       </c>
@@ -2316,34 +2335,34 @@
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>3.03</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <f t="shared" si="1"/>
         <v>1.0084341767510085E-2</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
       <c r="I31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <f t="shared" si="0"/>
         <v>9.09</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42991</v>
       </c>
@@ -2356,37 +2375,37 @@
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>5.81</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5.4803240740740743E-2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <f t="shared" si="1"/>
         <v>9.4325715560655329E-3</v>
       </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="M32" s="1">
+      <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="0"/>
         <v>23.24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43033</v>
       </c>
@@ -2399,37 +2418,37 @@
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>5.41</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5.31712962962963E-2</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <f t="shared" si="1"/>
         <v>9.8283357294447864E-3</v>
       </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
       <c r="I33" s="1">
         <v>1</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <f t="shared" si="0"/>
         <v>21.64</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43061</v>
       </c>
@@ -2442,34 +2461,34 @@
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>5.36</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>6.6331018518518511E-2</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <f t="shared" si="1"/>
         <v>1.2375190022111663E-2</v>
       </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="0"/>
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43117</v>
       </c>
@@ -2482,37 +2501,37 @@
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>5.54</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4.6400462962962963E-2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <f t="shared" si="1"/>
         <v>8.3755348308597408E-3</v>
       </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
       <c r="I35" s="1">
         <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <f t="shared" si="0"/>
         <v>22.16</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43152</v>
       </c>
@@ -2525,37 +2544,37 @@
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>4.32</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>3.965277777777778E-2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <f t="shared" si="1"/>
         <v>9.1788837448559674E-3</v>
       </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
       <c r="I36" s="1">
         <v>1</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="0"/>
         <v>17.28</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43181</v>
       </c>
@@ -2568,37 +2587,37 @@
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>6</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>5.6168981481481479E-2</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <f t="shared" si="1"/>
         <v>9.3614969135802466E-3</v>
       </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1" t="s">
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43216</v>
       </c>
@@ -2611,43 +2630,43 @@
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>4.37</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>3.875E-2</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <f t="shared" si="1"/>
         <v>8.8672768878718528E-3</v>
       </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="M38" s="1">
+      <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <f t="shared" si="0"/>
         <v>21.85</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43244</v>
       </c>
@@ -2660,37 +2679,37 @@
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>4.7696759259259258E-2</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <f t="shared" si="1"/>
         <v>1.0939623683316343E-2</v>
       </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1" t="s">
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="0"/>
         <v>13.080000000000002</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43272</v>
       </c>
@@ -2703,37 +2722,37 @@
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>4.0555555555555553E-2</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <f t="shared" si="1"/>
         <v>1.8434343434343432E-2</v>
       </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
       <c r="I40" s="1">
         <v>1</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="1" t="s">
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43354</v>
       </c>
@@ -2746,34 +2765,34 @@
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>2.19</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2.1250000000000002E-2</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <f t="shared" si="1"/>
         <v>9.7031963470319647E-3</v>
       </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
       <c r="I41" s="1">
         <v>1</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <f t="shared" si="0"/>
         <v>6.57</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43384</v>
       </c>
@@ -2786,34 +2805,34 @@
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>5.45</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5.7025462962962958E-2</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <f t="shared" si="1"/>
         <v>1.0463387699626231E-2</v>
       </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1" t="s">
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <f t="shared" si="0"/>
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43432</v>
       </c>
@@ -2826,37 +2845,37 @@
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>2.62</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2.390046296296296E-2</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <f t="shared" si="1"/>
         <v>9.12231410800113E-3</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
       <c r="I43" s="1">
         <v>1</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <f t="shared" si="0"/>
         <v>7.86</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43488</v>
       </c>
@@ -2869,43 +2888,43 @@
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>2.57</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3.2511574074074075E-2</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <f t="shared" si="1"/>
         <v>1.2650417927655283E-2</v>
       </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <f t="shared" si="0"/>
         <v>10.28</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43523</v>
       </c>
@@ -2918,37 +2937,37 @@
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>3.71</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <f t="shared" si="1"/>
         <v>6.9257262653489079E-3</v>
       </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
       <c r="I45" s="1">
         <v>1</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
       </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q45" s="1">
         <f t="shared" si="0"/>
         <v>14.84</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43544</v>
       </c>
@@ -2961,40 +2980,40 @@
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>4.74</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4.7002314814814816E-2</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <f t="shared" si="1"/>
         <v>9.9161001719018597E-3</v>
       </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
-      <c r="O46" s="1" t="s">
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <f t="shared" si="0"/>
         <v>18.96</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43572</v>
       </c>
@@ -3007,37 +3026,37 @@
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>3.23</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4.0798611111111112E-2</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <f t="shared" si="1"/>
         <v>1.2631148950808394E-2</v>
       </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-      <c r="O47" s="1" t="s">
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P47" s="1">
-        <f t="shared" ref="P47:P68" si="2">SUM(H47:N47)*E47</f>
+      <c r="Q47" s="1">
+        <f t="shared" ref="Q47:Q69" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>121</v>
@@ -3048,29 +3067,29 @@
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43628</v>
       </c>
@@ -3083,40 +3102,40 @@
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>5.46</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5.0312500000000003E-2</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <f t="shared" si="1"/>
         <v>9.21474358974359E-3</v>
       </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
       <c r="I49" s="1">
         <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <f t="shared" si="2"/>
         <v>21.84</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43663</v>
       </c>
@@ -3129,37 +3148,37 @@
       <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>3.94</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>4.5902777777777772E-2</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <f t="shared" si="1"/>
         <v>1.1650451212633953E-2</v>
       </c>
-      <c r="H50" s="1">
-        <v>1</v>
-      </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="1" t="s">
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <f t="shared" si="2"/>
         <v>15.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43705</v>
       </c>
@@ -3172,34 +3191,34 @@
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>3.7106481481481483E-2</v>
       </c>
-      <c r="G51" s="3">
-        <f>F51/E51</f>
+      <c r="H51" s="3">
+        <f>G51/F51</f>
         <v>9.0503613369467047E-3</v>
       </c>
-      <c r="H51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1" t="s">
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <f t="shared" si="2"/>
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43726</v>
       </c>
@@ -3212,37 +3231,37 @@
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>3.46</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3.2974537037037038E-2</v>
       </c>
-      <c r="G52" s="3">
-        <f>F52/E52</f>
+      <c r="H52" s="3">
+        <f>G52/F52</f>
         <v>9.530213016484693E-3</v>
       </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1" t="s">
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <f t="shared" si="2"/>
         <v>13.84</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43754</v>
       </c>
@@ -3255,37 +3274,37 @@
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>3.54</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>2.9988425925925922E-2</v>
       </c>
-      <c r="G53" s="1">
-        <f>F53/E53</f>
+      <c r="H53" s="1">
+        <f>G53/F53</f>
         <v>8.471306758736136E-3</v>
       </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
       <c r="J53" s="1">
         <v>1</v>
       </c>
-      <c r="L53" s="1">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1" t="s">
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <f t="shared" si="2"/>
         <v>14.16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43845</v>
       </c>
@@ -3298,37 +3317,37 @@
       <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>2.71</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4.08912037037037E-2</v>
       </c>
-      <c r="G54" s="1">
-        <f>F54/E54</f>
+      <c r="H54" s="1">
+        <f>G54/F54</f>
         <v>1.5089005056717232E-2</v>
       </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1" t="s">
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <f t="shared" si="2"/>
         <v>8.129999999999999</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43887</v>
       </c>
@@ -3341,40 +3360,40 @@
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>3.82</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="G55" s="1">
-        <f>F55/E55</f>
+      <c r="H55" s="1">
+        <f>G55/F55</f>
         <v>1.1089296102385108E-2</v>
       </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1</v>
-      </c>
-      <c r="L55" s="1">
-        <v>1</v>
-      </c>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
-      <c r="O55" s="1" t="s">
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <f t="shared" si="2"/>
         <v>15.28</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44013</v>
       </c>
@@ -3387,29 +3406,29 @@
       <c r="D56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
       </c>
-      <c r="N56" s="1">
-        <v>1</v>
-      </c>
-      <c r="O56" s="1" t="s">
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44062</v>
       </c>
@@ -3422,34 +3441,34 @@
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>3.37</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3.636574074074074E-2</v>
       </c>
-      <c r="G57" s="3">
-        <f t="shared" ref="G57:G68" si="3">F57/E57</f>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57:H69" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
       <c r="I57" s="1">
         <v>1</v>
       </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-      <c r="O57" s="1" t="s">
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <f t="shared" si="2"/>
         <v>10.11</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44097</v>
       </c>
@@ -3462,37 +3481,37 @@
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4.3784722222222218E-2</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <f t="shared" si="3"/>
         <v>1.057601986044015E-2</v>
       </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1" t="s">
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <f t="shared" si="2"/>
         <v>12.419999999999998</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44307</v>
       </c>
@@ -3505,37 +3524,37 @@
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>1.72</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2.0219907407407409E-2</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <f t="shared" si="3"/>
         <v>1.1755760120585703E-2</v>
       </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
       <c r="I59" s="1">
         <v>1</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
       </c>
-      <c r="N59" s="1">
-        <v>1</v>
-      </c>
-      <c r="O59" s="1" t="s">
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P59" s="1">
+      <c r="Q59" s="1">
         <f t="shared" si="2"/>
         <v>6.88</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44335</v>
       </c>
@@ -3548,34 +3567,34 @@
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>2.33</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2.3738425925925923E-2</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <f t="shared" si="3"/>
         <v>1.0188165633444601E-2</v>
       </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="s">
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <f t="shared" si="2"/>
         <v>6.99</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44370</v>
       </c>
@@ -3588,40 +3607,40 @@
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>4.21</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4.2106481481481488E-2</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <f t="shared" si="3"/>
         <v>1.0001539544294891E-2</v>
       </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
       <c r="I61" s="1">
         <v>1</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
       </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
-      <c r="O61" s="1" t="s">
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <f t="shared" si="2"/>
         <v>16.84</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44482</v>
       </c>
@@ -3634,40 +3653,40 @@
       <c r="D62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>3.2</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3.1261574074074074E-2</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <f t="shared" si="3"/>
         <v>9.7692418981481476E-3</v>
       </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
       <c r="I62" s="1">
         <v>1</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
       </c>
-      <c r="N62" s="1">
-        <v>1</v>
-      </c>
-      <c r="O62" s="1" t="s">
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44510</v>
       </c>
@@ -3680,37 +3699,37 @@
       <c r="D63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>3.35</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>3.8564814814814816E-2</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <f t="shared" si="3"/>
         <v>1.1511885019347705E-2</v>
       </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1" t="s">
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <f t="shared" si="2"/>
         <v>10.050000000000001</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44587</v>
       </c>
@@ -3723,40 +3742,40 @@
       <c r="D64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>3.9</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>4.2245370370370371E-2</v>
       </c>
-      <c r="G64" s="3">
+      <c r="H64" s="3">
         <f t="shared" si="3"/>
         <v>1.0832146248812916E-2</v>
       </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
       <c r="I64" s="1">
         <v>1</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
       </c>
-      <c r="N64" s="1">
-        <v>1</v>
-      </c>
-      <c r="O64" s="1" t="s">
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44706</v>
       </c>
@@ -3769,34 +3788,34 @@
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>2.6</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>2.9409722222222223E-2</v>
       </c>
-      <c r="G65" s="3">
+      <c r="H65" s="3">
         <f t="shared" si="3"/>
         <v>1.1311431623931624E-2</v>
       </c>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1">
-        <v>1</v>
-      </c>
-      <c r="O65" s="1" t="s">
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="P65" s="1">
+      <c r="Q65" s="1">
         <f t="shared" si="2"/>
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44734</v>
       </c>
@@ -3809,37 +3828,37 @@
       <c r="D66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2.9409722222222223E-2</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <f t="shared" si="3"/>
         <v>1.2003968253968253E-2</v>
       </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
       <c r="I66" s="1">
         <v>1</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
       </c>
-      <c r="N66" s="1">
-        <v>1</v>
-      </c>
-      <c r="O66" s="1" t="s">
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P66" s="1">
+      <c r="Q66" s="1">
         <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44811</v>
       </c>
@@ -3852,34 +3871,34 @@
       <c r="D67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>2.4594907407407409E-2</v>
       </c>
-      <c r="G67" s="3">
+      <c r="H67" s="3">
         <f t="shared" si="3"/>
         <v>1.0882702392658147E-2</v>
       </c>
-      <c r="H67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1">
-        <v>1</v>
-      </c>
-      <c r="O67" s="1" t="s">
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P67" s="1">
+      <c r="Q67" s="1">
         <f t="shared" si="2"/>
         <v>6.7799999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44881</v>
       </c>
@@ -3892,94 +3911,138 @@
       <c r="D68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>2.02</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>3.3379629629629634E-2</v>
       </c>
-      <c r="G68" s="3">
+      <c r="H68" s="3">
         <f t="shared" si="3"/>
         <v>1.6524569123579028E-2</v>
       </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
       <c r="I68" s="1">
         <v>1</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
       </c>
-      <c r="N68" s="1">
-        <v>1</v>
-      </c>
-      <c r="O68" s="1" t="s">
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q68" s="1">
         <f t="shared" si="2"/>
         <v>8.08</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E70" s="1">
-        <f>SUM(E3:E68)</f>
+    <row r="69" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="F69" s="1">
+        <f>E69*0.6213712</f>
+        <v>3.1130697119999997</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2.8692129629629633E-2</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2166678821966695E-3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2261394239999994</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="F71" s="1">
+        <f>SUM(F3:F68)</f>
         <v>246.14999999999998</v>
       </c>
-      <c r="G70" s="3">
-        <f>AVERAGE(G4:G68)</f>
+      <c r="H71" s="3">
+        <f>AVERAGE(H4:H68)</f>
         <v>1.0083377578289377E-2</v>
       </c>
-      <c r="H70" s="1">
-        <f>SUM(H3:H68)</f>
-        <v>60</v>
-      </c>
-      <c r="I70" s="1">
-        <f t="shared" ref="I70:L70" si="4">SUM(I3:I64)</f>
+      <c r="I71" s="1">
+        <f>SUM(I3:I69)</f>
+        <v>61</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" ref="J71:M71" si="4">SUM(J3:J64)</f>
         <v>40</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K71" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L71" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L70" s="1">
+      <c r="M71" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M70" s="1">
-        <f>SUM(M3:M64)</f>
+      <c r="N71" s="1">
+        <f>SUM(N3:N64)</f>
         <v>4</v>
       </c>
-      <c r="N70" s="1">
-        <f>SUM(N3:N68)</f>
-        <v>61</v>
-      </c>
-      <c r="P70" s="1">
-        <f>SUM(P3:P68)</f>
+      <c r="O71" s="1">
+        <f>SUM(O3:O69)</f>
+        <v>62</v>
+      </c>
+      <c r="Q71" s="1">
+        <f>SUM(Q3:Q68)</f>
         <v>880.35</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239681F2-7544-4348-8E5D-349C10D659B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173E71E-8ABB-6647-91E8-F2139176EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="17595" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="2300" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pub runs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
   <si>
     <t>Stanley</t>
   </si>
@@ -609,6 +609,36 @@
   </si>
   <si>
     <t>Attacked by herd of deer</t>
+  </si>
+  <si>
+    <t>The Great Northern</t>
+  </si>
+  <si>
+    <t>Attacked by hornets</t>
+  </si>
+  <si>
+    <t>Wirksworth</t>
+  </si>
+  <si>
+    <t>Star disk, quarries, vinyl record shop</t>
+  </si>
+  <si>
+    <t>The Feather Star</t>
+  </si>
+  <si>
+    <t>Stapleford</t>
+  </si>
+  <si>
+    <t>The Horse and Jockey</t>
+  </si>
+  <si>
+    <t>Along the canal</t>
+  </si>
+  <si>
+    <t>The Shiney Tap</t>
+  </si>
+  <si>
+    <t>To The Bridge Inn and back</t>
   </si>
 </sst>
 </file>
@@ -686,7 +716,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,9 +732,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -742,9 +772,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,26 +807,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,26 +842,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,27 +1018,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="15" width="2.5703125" customWidth="1"/>
-    <col min="16" max="16" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="15" width="2.5" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>41647</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42144</v>
       </c>
@@ -1198,7 +1194,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42186</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42291</v>
       </c>
@@ -1278,7 +1274,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42319</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42347</v>
       </c>
@@ -1367,7 +1363,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42389</v>
       </c>
@@ -1410,7 +1406,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42431</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42452</v>
       </c>
@@ -1496,7 +1492,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42480</v>
       </c>
@@ -1545,7 +1541,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42508</v>
       </c>
@@ -1588,7 +1584,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42536</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42564</v>
       </c>
@@ -1674,7 +1670,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42577</v>
       </c>
@@ -1717,7 +1713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42592</v>
       </c>
@@ -1757,7 +1753,7 @@
         <v>15.450000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42641</v>
       </c>
@@ -1803,7 +1799,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42655</v>
       </c>
@@ -1846,7 +1842,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42671</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>10.350000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42690</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42718</v>
       </c>
@@ -1978,7 +1974,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42760</v>
       </c>
@@ -2018,7 +2014,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42781</v>
       </c>
@@ -2064,7 +2060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42809</v>
       </c>
@@ -2113,7 +2109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42844</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42865</v>
       </c>
@@ -2193,7 +2189,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42879</v>
       </c>
@@ -2239,7 +2235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42907</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42920</v>
       </c>
@@ -2322,7 +2318,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42956</v>
       </c>
@@ -2362,7 +2358,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42991</v>
       </c>
@@ -2405,7 +2401,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>43033</v>
       </c>
@@ -2448,7 +2444,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>43061</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>16.080000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>43117</v>
       </c>
@@ -2531,7 +2527,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>43152</v>
       </c>
@@ -2574,7 +2570,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>43181</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>43216</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>43244</v>
       </c>
@@ -2709,7 +2705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>43272</v>
       </c>
@@ -2752,7 +2748,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>43354</v>
       </c>
@@ -2792,7 +2788,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>43384</v>
       </c>
@@ -2832,7 +2828,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>43432</v>
       </c>
@@ -2875,7 +2871,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43488</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43523</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43544</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>43572</v>
       </c>
@@ -3049,14 +3045,14 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q69" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q73" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>121</v>
@@ -3089,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>43628</v>
       </c>
@@ -3135,7 +3131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>43663</v>
       </c>
@@ -3178,7 +3174,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>43705</v>
       </c>
@@ -3218,7 +3214,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>43726</v>
       </c>
@@ -3261,7 +3257,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>43754</v>
       </c>
@@ -3304,7 +3300,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>43845</v>
       </c>
@@ -3347,7 +3343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>43887</v>
       </c>
@@ -3393,7 +3389,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>44013</v>
       </c>
@@ -3428,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>44062</v>
       </c>
@@ -3448,7 +3444,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H69" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H73" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -3468,7 +3464,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>44097</v>
       </c>
@@ -3511,7 +3507,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>44307</v>
       </c>
@@ -3554,7 +3550,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>44335</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>44370</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>44482</v>
       </c>
@@ -3686,7 +3682,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>44510</v>
       </c>
@@ -3729,7 +3725,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>44587</v>
       </c>
@@ -3775,7 +3771,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>44706</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>44734</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>44811</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>6.7799999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>44881</v>
       </c>
@@ -3941,7 +3937,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>44958</v>
       </c>
@@ -3985,61 +3981,246 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:19" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" ref="F70:F73" si="4">E70*0.6213712</f>
+        <v>3.0571463040000002</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2.7627314814814813E-2</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>9.0369619467236366E-3</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="2"/>
+        <v>12.228585216000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5.2</v>
+      </c>
       <c r="F71" s="1">
-        <f>SUM(F3:F68)</f>
-        <v>246.14999999999998</v>
+        <f t="shared" si="4"/>
+        <v>3.2311302400000002</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2.5162037037037038E-2</v>
       </c>
       <c r="H71" s="3">
-        <f>AVERAGE(H4:H68)</f>
-        <v>1.0083377578289377E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.7873793898933143E-3</v>
       </c>
       <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="2"/>
+        <v>12.924520960000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6101666719999996</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3.1539351851851853E-2</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7362592138659732E-3</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="2"/>
+        <v>14.440666687999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1">
+        <v>6.71</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1694007520000005</v>
+      </c>
+      <c r="G73" s="3">
+        <v>3.5543981481481475E-2</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5249616421332365E-3</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="2"/>
+        <v>12.508202256000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="F75" s="1">
+        <f>SUM(F8:F73)</f>
+        <v>249.43091368000003</v>
+      </c>
+      <c r="H75" s="3">
+        <f>AVERAGE(H9:H73)</f>
+        <v>1.0086941607929681E-2</v>
+      </c>
+      <c r="I75" s="1">
         <f>SUM(I3:I69)</f>
         <v>61</v>
       </c>
-      <c r="J71" s="1">
-        <f t="shared" ref="J71:M71" si="4">SUM(J3:J64)</f>
+      <c r="J75" s="1">
+        <f t="shared" ref="J75:M75" si="5">SUM(J3:J64)</f>
         <v>40</v>
       </c>
-      <c r="K71" s="1">
-        <f t="shared" si="4"/>
+      <c r="K75" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L71" s="1">
-        <f t="shared" si="4"/>
+      <c r="L75" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M71" s="1">
-        <f t="shared" si="4"/>
+      <c r="M75" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N75" s="1">
         <f>SUM(N3:N64)</f>
         <v>4</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O75" s="1">
         <f>SUM(O3:O69)</f>
         <v>62</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q75" s="1">
         <f>SUM(Q3:Q68)</f>
         <v>880.35</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173E71E-8ABB-6647-91E8-F2139176EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BFD1CC-D56A-4E44-8286-9891964C5AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2300" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pub runs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="207">
   <si>
     <t>Stanley</t>
   </si>
@@ -639,6 +639,18 @@
   </si>
   <si>
     <t>To The Bridge Inn and back</t>
+  </si>
+  <si>
+    <t>Sawley Junction</t>
+  </si>
+  <si>
+    <t>Long Eaton</t>
+  </si>
+  <si>
+    <t>Up to trent lock and back. Sloe Gin Cider</t>
+  </si>
+  <si>
+    <t>Star Disk</t>
   </si>
 </sst>
 </file>
@@ -1018,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1047,7 @@
     <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.83203125" customWidth="1"/>
     <col min="9" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="16" max="16" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
@@ -3045,7 +3057,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q73" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q74" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3444,7 +3456,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H73" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H74" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -3998,7 +4010,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F73" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F74" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4105,6 +4117,9 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
+      <c r="J72" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K72" s="1">
         <v>1</v>
       </c>
@@ -4121,10 +4136,13 @@
         <f t="shared" si="2"/>
         <v>14.440666687999999</v>
       </c>
+      <c r="R72" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>45250</v>
+        <v>45219</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>193</v>
@@ -4167,60 +4185,112 @@
       </c>
     </row>
     <row r="74" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="A74" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="4"/>
+        <v>3.336763344</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2.613425925925926E-2</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>7.8322183999810988E-3</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="2"/>
+        <v>10.010290032</v>
+      </c>
     </row>
     <row r="75" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="F75" s="1">
-        <f>SUM(F8:F73)</f>
-        <v>249.43091368000003</v>
-      </c>
-      <c r="H75" s="3">
+      <c r="A75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="F77" s="1">
+        <f>SUM(F8:F74)</f>
+        <v>252.76767702400002</v>
+      </c>
+      <c r="H77" s="3">
         <f>AVERAGE(H9:H73)</f>
         <v>1.0086941607929681E-2</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I77" s="1">
         <f>SUM(I3:I69)</f>
         <v>61</v>
       </c>
-      <c r="J75" s="1">
-        <f t="shared" ref="J75:M75" si="5">SUM(J3:J64)</f>
+      <c r="J77" s="1">
+        <f t="shared" ref="J77:M77" si="5">SUM(J3:J64)</f>
         <v>40</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K77" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L77" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M77" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N77" s="1">
         <f>SUM(N3:N64)</f>
         <v>4</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O77" s="1">
         <f>SUM(O3:O69)</f>
         <v>62</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q77" s="1">
         <f>SUM(Q3:Q68)</f>
         <v>880.35</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BFD1CC-D56A-4E44-8286-9891964C5AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677256CB-E8FA-924F-96DE-283D6FABBA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="210">
   <si>
     <t>Stanley</t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t>Star Disk</t>
+  </si>
+  <si>
+    <t>The Crafty Tap</t>
+  </si>
+  <si>
+    <t>Heanor</t>
+  </si>
+  <si>
+    <t>Around Shipley Park</t>
   </si>
 </sst>
 </file>
@@ -1030,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
+      <selection pane="bottomLeft" activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3057,7 +3066,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q74" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q75" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3456,7 +3465,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H74" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H75" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -4010,7 +4019,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F74" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F75" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4232,9 +4241,48 @@
       </c>
     </row>
     <row r="75" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="A75" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="4"/>
+        <v>2.777529264</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>7.2506486789940408E-3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="2"/>
+        <v>5.555058528</v>
+      </c>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
@@ -4242,55 +4290,70 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="F77" s="1">
-        <f>SUM(F8:F74)</f>
-        <v>252.76767702400002</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="A77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="F80" s="1">
+        <f>SUM(F8:F75)</f>
+        <v>255.54520628800003</v>
+      </c>
+      <c r="H80" s="3">
         <f>AVERAGE(H9:H73)</f>
         <v>1.0086941607929681E-2</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I80" s="1">
         <f>SUM(I3:I69)</f>
         <v>61</v>
       </c>
-      <c r="J77" s="1">
-        <f t="shared" ref="J77:M77" si="5">SUM(J3:J64)</f>
+      <c r="J80" s="1">
+        <f t="shared" ref="J80:M80" si="5">SUM(J3:J64)</f>
         <v>40</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K80" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L80" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M80" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N80" s="1">
         <f>SUM(N3:N64)</f>
         <v>4</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O80" s="1">
         <f>SUM(O3:O69)</f>
         <v>62</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q80" s="1">
         <f>SUM(Q3:Q68)</f>
         <v>880.35</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
+    <row r="83" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677256CB-E8FA-924F-96DE-283D6FABBA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF47C38-7EC6-9E42-8948-F31B3EC43D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="212">
   <si>
     <t>Stanley</t>
   </si>
@@ -660,6 +660,12 @@
   </si>
   <si>
     <t>Around Shipley Park</t>
+  </si>
+  <si>
+    <t>Rifleman's Arms</t>
+  </si>
+  <si>
+    <t>Sewage works, veteran paratrooper</t>
   </si>
 </sst>
 </file>
@@ -1041,9 +1047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P75" sqref="P75"/>
+      <selection pane="bottomLeft" activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3066,7 +3072,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q75" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q76" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3465,7 +3471,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H75" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H76" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -4019,7 +4025,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F75" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F76" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4285,9 +4291,51 @@
       </c>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="A76" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4.46</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7713155519999999</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2.1134259259259259E-2</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6260746431445203E-3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="2"/>
+        <v>11.085262208</v>
+      </c>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
@@ -4306,8 +4354,8 @@
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="F80" s="1">
-        <f>SUM(F8:F75)</f>
-        <v>255.54520628800003</v>
+        <f>SUM(F8:F76)</f>
+        <v>258.31652184000001</v>
       </c>
       <c r="H80" s="3">
         <f>AVERAGE(H9:H73)</f>

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF47C38-7EC6-9E42-8948-F31B3EC43D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C702C917-3205-9D4D-8A2E-B17699AF7EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
   <si>
     <t>Stanley</t>
   </si>
@@ -666,6 +666,12 @@
   </si>
   <si>
     <t>Sewage works, veteran paratrooper</t>
+  </si>
+  <si>
+    <t>Attenborough</t>
+  </si>
+  <si>
+    <t>ISS flyover</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R76" sqref="R76"/>
+      <selection pane="bottomLeft" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3072,7 +3078,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q76" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q77" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3471,7 +3477,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H76" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H77" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -4025,7 +4031,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F76" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F77" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4339,8 +4345,45 @@
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="C77" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1752068320000002</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2.3738425925925923E-2</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="3"/>
+        <v>7.4761825550033719E-3</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="2"/>
+        <v>12.700827328000001</v>
+      </c>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
@@ -4354,8 +4397,8 @@
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="F80" s="1">
-        <f>SUM(F8:F76)</f>
-        <v>258.31652184000001</v>
+        <f>SUM(F8:F77)</f>
+        <v>261.49172867200002</v>
       </c>
       <c r="H80" s="3">
         <f>AVERAGE(H9:H73)</f>

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C702C917-3205-9D4D-8A2E-B17699AF7EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D8DC68-3A62-1947-9CBC-96AFF9630CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="218">
   <si>
     <t>Stanley</t>
   </si>
@@ -672,6 +672,18 @@
   </si>
   <si>
     <t>ISS flyover</t>
+  </si>
+  <si>
+    <t>The Bird Hide</t>
+  </si>
+  <si>
+    <t>The Bridge Inn / Town Street Tap</t>
+  </si>
+  <si>
+    <t>Derwent/Ecclesbourne confluence</t>
+  </si>
+  <si>
+    <t>Multi-pub run, riverside drinks</t>
   </si>
 </sst>
 </file>
@@ -1051,24 +1063,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.83203125" customWidth="1"/>
     <col min="9" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="33" customWidth="1"/>
+    <col min="16" max="16" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
@@ -3078,7 +3090,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q77" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q78" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3477,7 +3489,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H77" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H78" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -4031,7 +4043,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F77" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F78" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4344,7 +4356,12 @@
       </c>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>212</v>
       </c>
@@ -4386,9 +4403,54 @@
       </c>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="A78" s="2">
+        <v>45528</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4730573759999999</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2.7372685185185184E-2</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1068358320686688E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8922295039999995</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
@@ -4396,55 +4458,70 @@
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="F80" s="1">
-        <f>SUM(F8:F77)</f>
-        <v>261.49172867200002</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="A80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="F83" s="1">
+        <f>SUM(F8:F78)</f>
+        <v>263.96478604800001</v>
+      </c>
+      <c r="H83" s="3">
         <f>AVERAGE(H9:H73)</f>
         <v>1.0086941607929681E-2</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I83" s="1">
         <f>SUM(I3:I69)</f>
         <v>61</v>
       </c>
-      <c r="J80" s="1">
-        <f t="shared" ref="J80:M80" si="5">SUM(J3:J64)</f>
+      <c r="J83" s="1">
+        <f t="shared" ref="J83:M83" si="5">SUM(J3:J64)</f>
         <v>40</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K83" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L83" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M83" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N83" s="1">
         <f>SUM(N3:N64)</f>
         <v>4</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O83" s="1">
         <f>SUM(O3:O69)</f>
         <v>62</v>
       </c>
-      <c r="Q80" s="1">
-        <f>SUM(Q3:Q68)</f>
-        <v>880.35</v>
-      </c>
-    </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
+      <c r="Q83" s="1">
+        <f>SUM(Q3:Q78)</f>
+        <v>987.92178214399996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D8DC68-3A62-1947-9CBC-96AFF9630CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35340F-EB1C-6F4C-BAC7-6E82B0054ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
   <si>
     <t>Stanley</t>
   </si>
@@ -684,6 +684,18 @@
   </si>
   <si>
     <t>Multi-pub run, riverside drinks</t>
+  </si>
+  <si>
+    <t>The Abbey / The Furnace</t>
+  </si>
+  <si>
+    <t>start/end at pub + extra pub</t>
+  </si>
+  <si>
+    <t>The Abbey basement</t>
+  </si>
+  <si>
+    <t>Drunkard taxi drama, pint at The Furnace, talkative chap at the abbey, the summoning of Mr. McCoy!</t>
   </si>
 </sst>
 </file>
@@ -1065,9 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2500,7 +2512,7 @@
         <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="F34" s="1">
         <v>5.36</v>
@@ -3090,7 +3102,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q78" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q79" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3230,7 +3242,7 @@
         <v>131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="F51" s="1">
         <v>4.0999999999999996</v>
@@ -3270,7 +3282,7 @@
         <v>40</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="F52" s="1">
         <v>3.46</v>
@@ -3489,7 +3501,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H78" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H79" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -3692,7 +3704,7 @@
         <v>152</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="F62" s="1">
         <v>3.2</v>
@@ -4043,7 +4055,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F78" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F79" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4413,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="E78" s="1">
         <v>3.98</v>
@@ -4432,8 +4444,8 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="1">
-        <v>1</v>
+      <c r="J78" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
@@ -4446,16 +4458,64 @@
       </c>
       <c r="Q78" s="1">
         <f t="shared" si="2"/>
-        <v>9.8922295039999995</v>
+        <v>7.4191721279999996</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="A79" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="4"/>
+        <v>2.218295184</v>
+      </c>
+      <c r="G79" s="3">
+        <v>2.011574074074074E-2</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="3"/>
+        <v>9.0681081967046006E-3</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8731807360000001</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
@@ -4474,8 +4534,8 @@
     </row>
     <row r="83" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="F83" s="1">
-        <f>SUM(F8:F78)</f>
-        <v>263.96478604800001</v>
+        <f>SUM(F8:F79)</f>
+        <v>266.18308123200001</v>
       </c>
       <c r="H83" s="3">
         <f>AVERAGE(H9:H73)</f>
@@ -4511,7 +4571,7 @@
       </c>
       <c r="Q83" s="1">
         <f>SUM(Q3:Q78)</f>
-        <v>987.92178214399996</v>
+        <v>985.44872476800003</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35340F-EB1C-6F4C-BAC7-6E82B0054ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CC3B6-5E1C-7546-8B59-1A031A05EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
   <si>
     <t>Stanley</t>
   </si>
@@ -696,6 +696,15 @@
   </si>
   <si>
     <t>Drunkard taxi drama, pint at The Furnace, talkative chap at the abbey, the summoning of Mr. McCoy!</t>
+  </si>
+  <si>
+    <t>just pub</t>
+  </si>
+  <si>
+    <t>Snowy, game of pool</t>
+  </si>
+  <si>
+    <t>Arkwrights / The Cross Keys</t>
   </si>
 </sst>
 </file>
@@ -1077,9 +1086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P80" sqref="P80"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4055,7 +4064,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F79" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F80" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4518,9 +4527,30 @@
       </c>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
+      <c r="P80" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
@@ -4534,7 +4564,7 @@
     </row>
     <row r="83" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="F83" s="1">
-        <f>SUM(F8:F79)</f>
+        <f>SUM(F8:F80)</f>
         <v>266.18308123200001</v>
       </c>
       <c r="H83" s="3">

--- a/pubrun.xlsx
+++ b/pubrun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CC3B6-5E1C-7546-8B59-1A031A05EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55232F-8615-2245-AF18-BDA7F18B1FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1740" windowWidth="28060" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="228">
   <si>
     <t>Stanley</t>
   </si>
@@ -705,6 +705,15 @@
   </si>
   <si>
     <t>Arkwrights / The Cross Keys</t>
+  </si>
+  <si>
+    <t>Little Chester Ale House</t>
+  </si>
+  <si>
+    <t>Little Chester</t>
+  </si>
+  <si>
+    <t>Spooky mist</t>
   </si>
 </sst>
 </file>
@@ -1084,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3111,7 +3120,7 @@
         <v>120</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q79" si="2">SUM(I47:O47)*F47</f>
+        <f t="shared" ref="Q47:Q86" si="2">SUM(I47:O47)*F47</f>
         <v>9.69</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3510,7 +3519,7 @@
         <v>3.636574074074074E-2</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H79" si="3">G57/F57</f>
+        <f t="shared" ref="H57:H81" si="3">G57/F57</f>
         <v>1.0791020991317726E-2</v>
       </c>
       <c r="I57" s="1">
@@ -4064,7 +4073,7 @@
         <v>4.92</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F80" si="4">E70*0.6213712</f>
+        <f t="shared" ref="F70:F81" si="4">E70*0.6213712</f>
         <v>3.0571463040000002</v>
       </c>
       <c r="G70" s="3">
@@ -4551,67 +4560,158 @@
       <c r="P80" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="A81" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0820011520000001</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2.2187499999999999E-2</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1990563616765313E-3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="2"/>
+        <v>12.328004608000001</v>
+      </c>
     </row>
     <row r="82" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
+      <c r="Q82" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="F83" s="1">
-        <f>SUM(F8:F80)</f>
-        <v>266.18308123200001</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="A83" s="2"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="Q83" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A84" s="2"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="Q84" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A85" s="2"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="Q85" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="Q86" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A87" s="2"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:17" s="1" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="F88" s="1">
+        <f>SUM(F8:F87)</f>
+        <v>269.26508238399998</v>
+      </c>
+      <c r="H88" s="3">
         <f>AVERAGE(H9:H73)</f>
         <v>1.0086941607929681E-2</v>
       </c>
-      <c r="I83" s="1">
-        <f>SUM(I3:I69)</f>
-        <v>61</v>
-      </c>
-      <c r="J83" s="1">
-        <f t="shared" ref="J83:M83" si="5">SUM(J3:J64)</f>
-        <v>40</v>
-      </c>
-      <c r="K83" s="1">
+      <c r="I88" s="1">
+        <f>SUM(I3:I87)</f>
+        <v>72</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" ref="J88:O88" si="5">SUM(J3:J87)</f>
+        <v>45</v>
+      </c>
+      <c r="K88" s="1">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="L83" s="1">
+        <v>67</v>
+      </c>
+      <c r="L88" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M88" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N83" s="1">
-        <f>SUM(N3:N64)</f>
+        <v>13</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="O83" s="1">
-        <f>SUM(O3:O69)</f>
-        <v>62</v>
-      </c>
-      <c r="Q83" s="1">
-        <f>SUM(Q3:Q78)</f>
-        <v>985.44872476800003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
+      <c r="O88" s="1">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="Q88" s="1">
+        <f>SUM(Q3:Q87)</f>
+        <v>1006.649910112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
